--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_396__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_396__Reeval_LHS_Modell_1.3.xlsx
@@ -5879,10 +5879,10 @@
                   <c:v>66.14871978759766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.46988677978516</c:v>
+                  <c:v>69.46987915039062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.48187255859375</c:v>
+                  <c:v>49.48187637329102</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>72.52268218994141</c:v>
@@ -5936,13 +5936,13 @@
                   <c:v>64.24327850341797</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>66.26355743408203</c:v>
+                  <c:v>66.26356506347656</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>64.96291351318359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.94497680664062</c:v>
+                  <c:v>60.94496917724609</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>66.70579528808594</c:v>
@@ -5957,19 +5957,19 @@
                   <c:v>67.28277587890625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62.86957550048828</c:v>
+                  <c:v>62.86956787109375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>65.69202423095703</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.45606231689453</c:v>
+                  <c:v>68.4560546875</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>73.07729339599609</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.92069244384766</c:v>
+                  <c:v>66.92068481445312</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>67.93806457519531</c:v>
@@ -6008,7 +6008,7 @@
                   <c:v>67.94541931152344</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>70.27557373046875</c:v>
+                  <c:v>70.27556610107422</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>63.82656860351562</c:v>
@@ -6089,7 +6089,7 @@
                   <c:v>69.76217651367188</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>69.32140350341797</c:v>
+                  <c:v>69.3214111328125</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>70.38742065429688</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>71.42353057861328</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>70.4593505859375</c:v>
+                  <c:v>70.45934295654297</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>73.62833404541016</c:v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>69.46988677978516</v>
+        <v>69.46987915039062</v>
       </c>
       <c r="G4">
         <v>105</v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>49.48187255859375</v>
+        <v>49.48187637329102</v>
       </c>
       <c r="G5">
         <v>105</v>
@@ -7351,7 +7351,7 @@
         <v>74.9674</v>
       </c>
       <c r="F23">
-        <v>66.26355743408203</v>
+        <v>66.26356506347656</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>60.94497680664062</v>
+        <v>60.94496917724609</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>62.86957550048828</v>
+        <v>62.86956787109375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>68.45606231689453</v>
+        <v>68.4560546875</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>66.92069244384766</v>
+        <v>66.92068481445312</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>70.27557373046875</v>
+        <v>70.27556610107422</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>69.32140350341797</v>
+        <v>69.3214111328125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>70.4593505859375</v>
+        <v>70.45934295654297</v>
       </c>
     </row>
     <row r="96" spans="1:6">
